--- a/APM files/131611519/131611519 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/131611519/131611519 IMPORT Stop Sell Removal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\131611519\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/131611519/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393564DA-EC3A-4E2E-A7BF-3254E33500B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01868D8-655F-3E4C-92C4-FA95A7A0691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3405" windowWidth="24585" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="3400" windowWidth="24580" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -118,7 +118,17 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -427,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>108269807</v>
       </c>
@@ -463,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>108548296</v>
       </c>
@@ -477,10 +487,85 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>108548296</v>
+      </c>
+      <c r="B4">
+        <v>131611519</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>108573163</v>
+      </c>
+      <c r="B5">
+        <v>131611519</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>108512148</v>
+      </c>
+      <c r="B6">
+        <v>131611519</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>108507058</v>
+      </c>
+      <c r="B7">
+        <v>131611519</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>108507067</v>
+      </c>
+      <c r="B8">
+        <v>131611519</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A8">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",A2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("false",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
